--- a/note/polly/polly-benchmark/MGCC Benchmarks Results Diff_single_Base-marvell-llvm-2015-3-18_BG2_1Ghz-1GMem_opt_New-polly-2015-3-25_BG2_1Ghz-1GMem_opt.xlsx
+++ b/note/polly/polly-benchmark/MGCC Benchmarks Results Diff_single_Base-marvell-llvm-2015-3-18_BG2_1Ghz-1GMem_opt_New-polly-2015-3-25_BG2_1Ghz-1GMem_opt.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="benchmark_run_base" localSheetId="1">base!$A$1:$E$633</definedName>
-    <definedName name="benchmark_run_new" localSheetId="2">new!$A$1:$E$600</definedName>
+    <definedName name="benchmark_run_new" localSheetId="2">new!$A$1:$E$633</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="224">
   <si>
     <t>Benchmarks</t>
   </si>
@@ -716,13 +716,16 @@
   </si>
   <si>
     <t>whetstone_linux_armadaxp_llvm3.4_o3_arm_timer_DP.exe</t>
+  </si>
+  <si>
+    <t>multibenchmini1e_linux_armadaxp_llvm3.4_o3_arm_timer cannot be built in polly, so use Marvell toolchain's data instead.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,6 +765,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -784,12 +795,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1140,7 +1152,7 @@
   <dimension ref="A1:I567"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F333" sqref="F333"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1173,13 +1185,13 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="H2" s="4" t="e">
+      <c r="H2" s="4">
         <f>AVERAGE(F3:F567)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I2" s="4" t="e">
+        <v>50.910915191755109</v>
+      </c>
+      <c r="I2" s="4">
         <f>SUM(F3:F567)</f>
-        <v>#REF!</v>
+        <v>26575.497730096165</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1191,6 +1203,9 @@
         <f t="shared" ref="F3:F12" si="0">IF(B3=0, "", $D3/$B3-1)</f>
         <v/>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="str">
@@ -10848,13 +10863,13 @@
         <f>base!B624</f>
         <v>1102.8028999999999</v>
       </c>
-      <c r="D561" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F561" s="1" t="e">
+      <c r="D561">
+        <f>new!B624</f>
+        <v>1109.1549</v>
+      </c>
+      <c r="F561" s="1">
         <f t="shared" si="27"/>
-        <v>#REF!</v>
+        <v>5.7598687852562502E-3</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -10866,13 +10881,13 @@
         <f>base!B625</f>
         <v>321.50189999999998</v>
       </c>
-      <c r="D562" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F562" s="1" t="e">
+      <c r="D562">
+        <f>new!B625</f>
+        <v>320.77659999999997</v>
+      </c>
+      <c r="F562" s="1">
         <f t="shared" ref="F562:F566" si="28">IF(B562=0, "", $D562/$B562-1)</f>
-        <v>#REF!</v>
+        <v>-2.2559742259687932E-3</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -10884,13 +10899,13 @@
         <f>base!B626</f>
         <v>455.66320000000002</v>
       </c>
-      <c r="D563" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F563" s="1" t="e">
+      <c r="D563">
+        <f>new!B626</f>
+        <v>455.75810000000001</v>
+      </c>
+      <c r="F563" s="1">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
+        <v>2.0826786099914507E-4</v>
       </c>
     </row>
     <row r="564" spans="1:6">
@@ -10902,13 +10917,13 @@
         <f>base!B627</f>
         <v>414.17469999999997</v>
       </c>
-      <c r="D564" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F564" s="1" t="e">
+      <c r="D564">
+        <f>new!B627</f>
+        <v>414.27190000000002</v>
+      </c>
+      <c r="F564" s="1">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
+        <v>2.3468357676126317E-4</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -10930,13 +10945,13 @@
         <f>base!B632</f>
         <v>428.15600000000001</v>
       </c>
-      <c r="D566" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F566" s="1" t="e">
+      <c r="D566">
+        <f>new!B632</f>
+        <v>429.79300000000001</v>
+      </c>
+      <c r="F566" s="1">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
+        <v>3.8233727893570713E-3</v>
       </c>
     </row>
     <row r="567" spans="1:6">
@@ -10949,7 +10964,7 @@
         <v>431.85399999999998</v>
       </c>
       <c r="D567">
-        <f>new!B600</f>
+        <f>new!B633</f>
         <v>439.63799999999998</v>
       </c>
       <c r="F567" s="1">
@@ -15904,7 +15919,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:E600"/>
+  <dimension ref="A4:E633"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -15914,7 +15929,7 @@
   <cols>
     <col min="1" max="1" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.85546875" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
@@ -20478,89 +20493,348 @@
         <v>173.33</v>
       </c>
     </row>
+    <row r="586" spans="1:3">
+      <c r="A586" t="s">
+        <v>0</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1</v>
+      </c>
+      <c r="C586" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" t="s">
+        <v>128</v>
+      </c>
+      <c r="B587">
+        <v>324.928516</v>
+      </c>
+    </row>
     <row r="588" spans="1:3">
       <c r="A588" t="s">
-        <v>0</v>
-      </c>
-      <c r="B588" t="s">
-        <v>1</v>
-      </c>
-      <c r="C588" t="s">
-        <v>219</v>
+        <v>129</v>
+      </c>
+      <c r="B588">
+        <v>24.970866999999998</v>
       </c>
     </row>
     <row r="589" spans="1:3">
       <c r="A589" t="s">
-        <v>160</v>
+        <v>130</v>
+      </c>
+      <c r="B589">
+        <v>14.643432000000001</v>
       </c>
     </row>
     <row r="590" spans="1:3">
       <c r="A590" t="s">
-        <v>86</v>
-      </c>
-      <c r="B590" t="s">
-        <v>87</v>
-      </c>
-      <c r="C590" t="s">
-        <v>88</v>
+        <v>131</v>
+      </c>
+      <c r="B590">
+        <v>20.352091000000001</v>
       </c>
     </row>
     <row r="591" spans="1:3">
       <c r="A591" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B591">
-        <v>1109.1549</v>
+        <v>4.0270619999999999</v>
       </c>
     </row>
     <row r="592" spans="1:3">
       <c r="A592" t="s">
+        <v>133</v>
+      </c>
+      <c r="B592">
+        <v>4.0316080000000003</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" t="s">
+        <v>134</v>
+      </c>
+      <c r="B593">
+        <v>0.29378100000000001</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" t="s">
+        <v>135</v>
+      </c>
+      <c r="B594">
+        <v>5.152514</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" t="s">
+        <v>136</v>
+      </c>
+      <c r="B595">
+        <v>32.883920000000003</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" t="s">
+        <v>137</v>
+      </c>
+      <c r="B596">
+        <v>16.937669</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" t="s">
+        <v>138</v>
+      </c>
+      <c r="B597">
+        <v>4.8469179999999996</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" t="s">
+        <v>139</v>
+      </c>
+      <c r="B598">
+        <v>0.38880199999999998</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" t="s">
+        <v>140</v>
+      </c>
+      <c r="B599">
+        <v>6.5054749999999997</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" t="s">
+        <v>141</v>
+      </c>
+      <c r="B600">
+        <v>8.1261170000000007</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" t="s">
+        <v>142</v>
+      </c>
+      <c r="B601">
+        <v>33.439224000000003</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" t="s">
+        <v>143</v>
+      </c>
+      <c r="B602">
+        <v>36.199095</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" t="s">
+        <v>144</v>
+      </c>
+      <c r="B603">
+        <v>0.498753</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" t="s">
+        <v>145</v>
+      </c>
+      <c r="B604">
+        <v>27.397259999999999</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" t="s">
+        <v>146</v>
+      </c>
+      <c r="B605">
+        <v>328.17012299999999</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" t="s">
+        <v>147</v>
+      </c>
+      <c r="B606">
+        <v>324.84407499999998</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" t="s">
+        <v>148</v>
+      </c>
+      <c r="B607">
+        <v>24.658885000000001</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" t="s">
+        <v>149</v>
+      </c>
+      <c r="B608">
+        <v>14.617746</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609" t="s">
+        <v>150</v>
+      </c>
+      <c r="B609">
+        <v>20.281918999999998</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610" t="s">
+        <v>151</v>
+      </c>
+      <c r="B610">
+        <v>4.0247929999999998</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611" t="s">
+        <v>152</v>
+      </c>
+      <c r="B611">
+        <v>4.0312830000000002</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612" t="s">
+        <v>153</v>
+      </c>
+      <c r="B612">
+        <v>0.30601600000000001</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613" t="s">
+        <v>154</v>
+      </c>
+      <c r="B613">
+        <v>5.1535770000000003</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614" t="s">
+        <v>155</v>
+      </c>
+      <c r="B614">
+        <v>18.539117999999998</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615" t="s">
+        <v>156</v>
+      </c>
+      <c r="B615">
+        <v>18.539117999999998</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616" t="s">
+        <v>157</v>
+      </c>
+      <c r="B616">
+        <v>16.713092</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617" t="s">
+        <v>158</v>
+      </c>
+      <c r="B617">
+        <v>423728.81355899997</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621" t="s">
+        <v>0</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1</v>
+      </c>
+      <c r="C621" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623" t="s">
+        <v>86</v>
+      </c>
+      <c r="B623" t="s">
+        <v>87</v>
+      </c>
+      <c r="C623" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624" t="s">
+        <v>161</v>
+      </c>
+      <c r="B624">
+        <v>1109.1549</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625" t="s">
         <v>162</v>
       </c>
-      <c r="B592">
+      <c r="B625">
         <v>320.77659999999997</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
-      <c r="A593" t="s">
+    <row r="626" spans="1:3">
+      <c r="A626" t="s">
         <v>163</v>
       </c>
-      <c r="B593">
+      <c r="B626">
         <v>455.75810000000001</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
-      <c r="A594" t="s">
+    <row r="627" spans="1:3">
+      <c r="A627" t="s">
         <v>164</v>
       </c>
-      <c r="B594">
+      <c r="B627">
         <v>414.27190000000002</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
-      <c r="A598" t="s">
+    <row r="631" spans="1:3">
+      <c r="A631" t="s">
         <v>0</v>
       </c>
-      <c r="B598" t="s">
+      <c r="B631" t="s">
         <v>1</v>
       </c>
-      <c r="C598" t="s">
+      <c r="C631" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
-      <c r="A599" t="s">
+    <row r="632" spans="1:3">
+      <c r="A632" t="s">
         <v>221</v>
       </c>
-      <c r="B599">
+      <c r="B632">
         <v>429.79300000000001</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
-      <c r="A600" t="s">
+    <row r="633" spans="1:3">
+      <c r="A633" t="s">
         <v>222</v>
       </c>
-      <c r="B600">
+      <c r="B633">
         <v>439.63799999999998</v>
       </c>
     </row>
